--- a/data/trans_dic/P62A$invalidez-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P62A$invalidez-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,57; 24,01</t>
+          <t>4,65; 23,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 25,81</t>
+          <t>8,44; 24,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -749,44 +750,44 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,04; 18,37</t>
+          <t>3,01; 18,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 15,24</t>
+          <t>1,75; 16,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>35,6; 61,25</t>
+          <t>34,78; 61,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 14,07</t>
+          <t>2,75; 14,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 18,15</t>
+          <t>7,37; 18,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 8,38</t>
+          <t>0,86; 8,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>19,19; 37,11</t>
+          <t>18,62; 36,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +865,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 23,71</t>
+          <t>9,19; 23,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,88; 28,77</t>
+          <t>14,35; 29,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 14,3</t>
+          <t>4,84; 13,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,49 +885,49 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 17,91</t>
+          <t>4,74; 17,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 22,28</t>
+          <t>7,33; 22,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 13,73</t>
+          <t>3,28; 14,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,19; 50,13</t>
+          <t>35,33; 49,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 18,24</t>
+          <t>8,59; 17,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,72; 24,32</t>
+          <t>13,09; 24,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,2</t>
+          <t>4,74; 11,85</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 24,63</t>
+          <t>16,64; 25,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 17,36</t>
+          <t>2,82; 16,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 25,05</t>
+          <t>8,24; 26,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 14,63</t>
+          <t>2,28; 13,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,12</t>
+          <t>0,0; 4,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 11,65</t>
+          <t>1,46; 11,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 12,43</t>
+          <t>1,41; 14,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,68</t>
+          <t>1,26; 11,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,26; 53,62</t>
+          <t>36,96; 52,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 11,4</t>
+          <t>2,86; 11,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 17,12</t>
+          <t>6,49; 17,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 9,86</t>
+          <t>2,44; 10,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,27; 26,63</t>
+          <t>17,15; 27,04</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1145,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,37</t>
+          <t>1,39; 13,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 24,4</t>
+          <t>9,46; 26,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 21,12</t>
+          <t>6,9; 20,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,42 +1165,42 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 15,32</t>
+          <t>2,9; 16,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 20,27</t>
+          <t>6,47; 19,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,9</t>
+          <t>2,69; 15,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,67; 39,43</t>
+          <t>25,38; 38,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 11,31</t>
+          <t>2,95; 11,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,99; 19,06</t>
+          <t>9,53; 19,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 15,99</t>
+          <t>6,31; 15,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,47</t>
+          <t>12,53; 20,14</t>
         </is>
       </c>
     </row>
@@ -1284,17 +1285,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 20,35</t>
+          <t>3,78; 19,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 22,7</t>
+          <t>4,06; 22,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 24,06</t>
+          <t>6,06; 22,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,49 +1305,49 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 36,17</t>
+          <t>8,55; 36,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,98; 23,79</t>
+          <t>4,13; 22,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,71</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,54; 42,67</t>
+          <t>25,77; 43,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 22,85</t>
+          <t>8,12; 23,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 18,7</t>
+          <t>5,45; 18,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 14,66</t>
+          <t>4,11; 14,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,07</t>
+          <t>13,96; 25,06</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1429,27 +1430,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 26,0</t>
+          <t>8,15; 25,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,74; 18,88</t>
+          <t>4,05; 19,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 7,42</t>
+          <t>1,19; 8,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,0</t>
+          <t>0,0; 13,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,55</t>
+          <t>0,0; 10,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,34 +1460,34 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,03; 67,76</t>
+          <t>51,41; 67,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,51</t>
+          <t>0,0; 5,9</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,62</t>
+          <t>5,42; 16,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 11,22</t>
+          <t>2,5; 11,93</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,71; 32,31</t>
+          <t>22,67; 32,35</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 11,4</t>
+          <t>3,26; 12,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,73; 21,32</t>
+          <t>9,55; 22,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 11,84</t>
+          <t>2,79; 11,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,62</t>
+          <t>0,53; 5,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 15,22</t>
+          <t>3,95; 14,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,58; 18,26</t>
+          <t>5,94; 17,59</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 14,16</t>
+          <t>4,34; 15,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 25,98</t>
+          <t>2,77; 25,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,63; 10,96</t>
+          <t>4,36; 11,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,18; 17,4</t>
+          <t>9,24; 17,57</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,45; 10,87</t>
+          <t>4,18; 10,41</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 13,26</t>
+          <t>2,32; 13,26</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,89; 19,85</t>
+          <t>9,4; 20,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,14; 23,81</t>
+          <t>12,7; 24,77</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,1; 21,62</t>
+          <t>11,08; 21,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,7; 5,32</t>
+          <t>0,83; 5,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 16,91</t>
+          <t>5,16; 16,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,48; 19,83</t>
+          <t>8,53; 20,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,05; 17,34</t>
+          <t>6,91; 16,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,54; 47,67</t>
+          <t>37,01; 48,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,41</t>
+          <t>8,81; 17,48</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,29; 20,49</t>
+          <t>11,88; 20,23</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>10,38; 17,92</t>
+          <t>10,21; 17,63</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,76; 23,97</t>
+          <t>17,67; 23,99</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,89; 12,23</t>
+          <t>7,72; 12,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,06</t>
+          <t>13,9; 19,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,98; 11,89</t>
+          <t>7,78; 12,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,32</t>
+          <t>0,72; 2,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,18; 10,57</t>
+          <t>6,0; 10,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,16</t>
+          <t>8,39; 13,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,63</t>
+          <t>5,35; 9,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>15,63; 40,22</t>
+          <t>15,15; 40,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,83</t>
+          <t>7,73; 10,81</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>11,99; 15,68</t>
+          <t>11,9; 15,59</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,02</t>
+          <t>7,32; 10,31</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>11,43; 20,21</t>
+          <t>11,43; 20,05</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, recibe una pensión de invalidez</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6359</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11499</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5995</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>14987</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6359</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17493</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14987</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2457; 12219</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6420; 18412</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1322</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1937</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2075; 12811</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>963; 9222</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10830; 19028</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2424; 12908</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10680; 27147</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>978; 9758</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10314; 20292</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18296</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27578</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12645</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7610</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>12068</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6399</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>52542</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25906</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>39646</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19044</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52542</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11113; 28096</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18989; 39104</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7194; 20272</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3751; 13689</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6515; 19966</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3003; 13206</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43117; 60535</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17193; 35890</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28951; 53416</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11392; 28472</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42739; 64212</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6158</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>13053</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5770</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4193</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3280</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>37514</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9144</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17245</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>9050</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>38355</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2104; 12383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6775; 21568</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2053; 12406</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4214</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>970; 7858</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1062; 10648</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1005; 9057</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30945; 43995</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4034; 16330</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10240; 27889</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4147; 17707</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30103; 47465</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>16180</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11782</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4845</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11837</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5897</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>26006</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>8696</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>28018</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>17679</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>26006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>974; 9351</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>9687; 27090</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6658; 20163</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1443</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1883; 10459</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6513; 20061</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2084; 12275</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>20479; 31202</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3982; 15211</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19353; 38998</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10976; 26409</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>20009; 32166</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4516</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5388</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>8555</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7016</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4985</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14029</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>11532</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>10373</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10404</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14029</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1710; 8926</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2029; 11200</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4043; 15133</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 939</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2989; 12859</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1943; 10495</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5777</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>10733; 18079</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>6516; 18820</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5280; 18089</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5094; 18154</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10201; 18309</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11222</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6664</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2709</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>35693</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2033</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>13325</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>6664</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>38401</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1834</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6056; 18939</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2991; 14267</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>955; 6462</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6220</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6411</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2169</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>30815; 40233</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6537</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7284; 22354</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2957; 14103</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>31712; 45251</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9369</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23392</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>9384</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2987</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9861</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>16497</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>12102</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>33555</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>19230</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>39889</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>21486</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>36542</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4655; 17408</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15201; 35099</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>4293; 17529</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>837; 7928</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4701; 16722</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8925; 26417</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6630; 23005</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>9543; 88808</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>11415; 28867</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>28578; 54350</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>12821; 31894</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>11652; 66629</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>23544</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>34637</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>33508</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>4610</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>13060</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>20732</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>20230</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>74022</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>36604</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>55369</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>53738</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>78632</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>15804; 34930</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>24720; 48229</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>23662; 46035</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1672; 10875</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>6634; 21668</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>13217; 31629</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>12358; 29785</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>64590; 83948</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>26144; 51892</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>41515; 70698</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>40084; 69192</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>66469; 90235</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>72092</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>142949</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>88308</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>47411</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>78409</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>53603</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>288348</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>119503</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>221358</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>141911</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>299495</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>56950; 90081</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>121069; 167919</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>70139; 109097</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>5744; 18124</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>34552; 60976</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>62587; 97897</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>39438; 68248</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>142082; 377571</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>101582; 142040</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>192494; 252181</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>119920; 168861</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>198735; 348746</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>